--- a/media/file/goodslist/a188c6e75c38c3882968d488eed146b0.xlsx
+++ b/media/file/goodslist/a188c6e75c38c3882968d488eed146b0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,654 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>后视镜</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>配件</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>椭圆形</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>82</v>
+      </c>
+      <c r="K2" t="n">
+        <v>85</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>66</v>
+      </c>
+      <c r="O2" t="n">
+        <v>26</v>
+      </c>
+      <c r="P2" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>保险杠</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>配件</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>长条</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>59</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>69</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>24</v>
+      </c>
+      <c r="P3" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>方向盘</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>箱</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>配件</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>方形</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O4" t="n">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>底盘</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>总成</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>圆形</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>90</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>78</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>发动机</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>总成</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>方形</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>94</v>
+      </c>
+      <c r="N6" t="n">
+        <v>54</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>49</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>变速箱</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>总成</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>方形</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="n">
+        <v>56</v>
+      </c>
+      <c r="L7" t="n">
+        <v>56</v>
+      </c>
+      <c r="M7" t="n">
+        <v>54</v>
+      </c>
+      <c r="N7" t="n">
+        <v>94</v>
+      </c>
+      <c r="O7" t="n">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>59</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>仪表台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>总成</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>长条</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>42</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>92</v>
+      </c>
+      <c r="N8" t="n">
+        <v>29</v>
+      </c>
+      <c r="O8" t="n">
+        <v>98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>81</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>排气管</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>管</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>配件</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A6L</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>长条</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>银色</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>奥迪</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>52</v>
+      </c>
+      <c r="L9" t="n">
+        <v>64</v>
+      </c>
+      <c r="M9" t="n">
+        <v>37</v>
+      </c>
+      <c r="N9" t="n">
+        <v>56</v>
+      </c>
+      <c r="O9" t="n">
+        <v>84</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>45</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2020-06-22 15:56:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
